--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>861092.4806348379</v>
+        <v>674230.6666097078</v>
       </c>
     </row>
     <row r="8">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,13 +668,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>176.5833452824891</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,22 +707,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>143.7391060166172</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,10 +859,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>59.35297612243365</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>89.04055620987458</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>165.1689607921873</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>282.7470620671675</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>51.05460352320711</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>223.82438355203</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>220.5915391489351</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2820636851749</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481162</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553075</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250816</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229327</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>27.45481249848788</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,31 +1333,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>169.016729170213</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,22 +1531,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.89657674137948</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1582,16 +1582,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>280.6628013981282</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1613,19 +1613,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722625</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>112.6185215999999</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>12.90368342835946</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,22 +2047,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>48.72579877709951</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>210.9685212521339</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2305,7 +2305,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.556656187419316</v>
       </c>
       <c r="T25" t="n">
-        <v>118.4898845065119</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2606,10 +2606,10 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385017</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>51.20625352634689</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>152.1727539793426</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896913</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113169</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274076</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051993</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385018</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701348</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174129</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2950,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>54.4668783641776</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.913828367536</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985772</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896909</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>82.52593441953267</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,22 +3235,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>190.6405752120378</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,16 +3421,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>194.7041351372148</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056514</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3563,7 +3563,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3664,22 +3664,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>118.4898845065119</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>48.58013133342728</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3755,7 +3755,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H41" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
         <v>81.77913505274077</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3955,16 +3955,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>199.3668334840801</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>68.07013494900198</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634807</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710077</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206851</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722619</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417116</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896916</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113138</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505273999</v>
+        <v>81.77913505274088</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.950364805199</v>
       </c>
       <c r="T44" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560537</v>
       </c>
     </row>
     <row r="45">
@@ -4132,25 +4132,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>86.17363552701696</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4183,22 +4183,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365911</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1036.358670716696</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.358670716696</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>1130.934501327943</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2496.929385370314</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V2" t="n">
-        <v>2165.866498026743</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W2" t="n">
-        <v>1813.097842756629</v>
+        <v>1894.539591564834</v>
       </c>
       <c r="X2" t="n">
-        <v>1813.097842756629</v>
+        <v>1521.073833303755</v>
       </c>
       <c r="Y2" t="n">
-        <v>1422.958510780817</v>
+        <v>1130.934501327943</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170821</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359551</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692481</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
@@ -4416,16 +4416,16 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1297.647259770169</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1851.37379586972</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2291.509718890064</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2627.754532504893</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4434,25 +4434,25 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545818</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>295.8809182883532</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545818</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545818</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545818</v>
+        <v>383.5045402329973</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1529.2861479534</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="C5" t="n">
-        <v>1529.2861479534</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D5" t="n">
-        <v>1171.020449346649</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E5" t="n">
-        <v>785.2321967484049</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>374.2462919587974</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4565,7 +4565,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y5" t="n">
-        <v>1915.885988017521</v>
+        <v>1762.972057945408</v>
       </c>
     </row>
     <row r="6">
@@ -4644,19 +4644,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537797</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>494.9102127870964</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>676.5586776173361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>676.5586776173361</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>676.5586776173361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U7" t="n">
-        <v>676.5586776173361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="V7" t="n">
-        <v>676.5586776173361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="W7" t="n">
-        <v>676.5586776173361</v>
+        <v>500.820796875036</v>
       </c>
       <c r="X7" t="n">
-        <v>676.5586776173361</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y7" t="n">
-        <v>676.5586776173361</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>549.6493205341553</v>
+        <v>1937.08349269302</v>
       </c>
       <c r="C8" t="n">
-        <v>549.6493205341553</v>
+        <v>1568.120975752609</v>
       </c>
       <c r="D8" t="n">
-        <v>191.3836219274048</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E8" t="n">
-        <v>191.3836219274048</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177357</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036448</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036448</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533144</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.961649073313</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
-        <v>1362.238747280444</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.84331964269</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018224</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548717</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.30824683495</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>1993.546461473042</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129471</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859357</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982771</v>
+        <v>2323.683332757142</v>
       </c>
       <c r="Y8" t="n">
-        <v>936.2491605982771</v>
+        <v>2323.683332757142</v>
       </c>
     </row>
     <row r="9">
@@ -4878,22 +4878,22 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204944</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.447464661593</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>789.063382757265</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414848</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
         <v>2188.831293537797</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036448</v>
+        <v>250.6112985851278</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036448</v>
+        <v>81.67511565722089</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036448</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866327</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477912</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658212</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502504</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594906</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064349</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064349</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245976</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>513.8405610245976</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>224.6669506791656</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="V10" t="n">
-        <v>224.6669506791656</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036448</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036448</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036448</v>
+        <v>250.6112985851278</v>
       </c>
     </row>
     <row r="11">
@@ -5024,13 +5024,13 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J11" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514086</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5060,7 +5060,7 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014293</v>
@@ -5118,22 +5118,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L12" t="n">
-        <v>921.1936903636249</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M12" t="n">
-        <v>1228.513823643587</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="N12" t="n">
-        <v>1558.376451307619</v>
+        <v>1442.339749591389</v>
       </c>
       <c r="O12" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>241.9805482336712</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="C13" t="n">
-        <v>241.9805482336712</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I13" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765186</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="V13" t="n">
-        <v>531.3977182706318</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="W13" t="n">
-        <v>241.9805482336712</v>
+        <v>791.7130660729324</v>
       </c>
       <c r="X13" t="n">
-        <v>241.9805482336712</v>
+        <v>563.7235151749151</v>
       </c>
       <c r="Y13" t="n">
-        <v>241.9805482336712</v>
+        <v>563.7235151749151</v>
       </c>
     </row>
     <row r="14">
@@ -5255,16 +5255,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,46 +5276,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X14" t="n">
         <v>3205.060556590537</v>
@@ -5358,16 +5358,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K15" t="n">
-        <v>222.5746515181233</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L15" t="n">
-        <v>452.5377573864724</v>
+        <v>660.3780132492466</v>
       </c>
       <c r="M15" t="n">
-        <v>772.8730769161742</v>
+        <v>980.7133327789484</v>
       </c>
       <c r="N15" t="n">
-        <v>1364.414563824402</v>
+        <v>1785.124911043099</v>
       </c>
       <c r="O15" t="n">
         <v>2033.878325127062</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3741.086798021098</v>
+        <v>260.6691235773521</v>
       </c>
       <c r="C16" t="n">
-        <v>3627.330715596856</v>
+        <v>260.6691235773521</v>
       </c>
       <c r="D16" t="n">
-        <v>3627.330715596856</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E16" t="n">
-        <v>3627.330715596856</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F16" t="n">
-        <v>3627.330715596856</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G16" t="n">
-        <v>3459.155393916677</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I16" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J16" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M16" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>4660.934562929846</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T16" t="n">
-        <v>4660.934562929846</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U16" t="n">
-        <v>4660.934562929846</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V16" t="n">
-        <v>4660.934562929846</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="W16" t="n">
-        <v>4371.517392892885</v>
+        <v>709.4512536188996</v>
       </c>
       <c r="X16" t="n">
-        <v>4143.527841994868</v>
+        <v>481.4617027208823</v>
       </c>
       <c r="Y16" t="n">
-        <v>3922.735262851338</v>
+        <v>260.6691235773521</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
@@ -5510,52 +5510,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1335.172049140323</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2349.1564660806</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>376.9270045185178</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185178</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028587</v>
@@ -5677,10 +5677,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1338.623188557001</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1114.837773346507</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>825.7091345600652</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V19" t="n">
-        <v>825.7091345600652</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W19" t="n">
-        <v>825.7091345600652</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X19" t="n">
-        <v>597.7195836620479</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y19" t="n">
-        <v>376.9270045185178</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="20">
@@ -5729,31 +5729,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,34 +5768,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5826,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>508.1073603047985</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L21" t="n">
-        <v>1122.004430061687</v>
+        <v>811.5008739770942</v>
       </c>
       <c r="M21" t="n">
-        <v>1429.324563341649</v>
+        <v>1131.836193506796</v>
       </c>
       <c r="N21" t="n">
-        <v>1759.187191005682</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>241.9805482336712</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="C22" t="n">
-        <v>241.9805482336712</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="D22" t="n">
-        <v>241.9805482336712</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>4224.049631303054</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>3969.365143097166</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="X22" t="n">
-        <v>241.9805482336712</v>
+        <v>3679.947973060206</v>
       </c>
       <c r="Y22" t="n">
-        <v>241.9805482336712</v>
+        <v>3459.155393916676</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
@@ -6011,28 +6011,28 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1604.839867667473</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N24" t="n">
-        <v>2122.782055165496</v>
+        <v>1679.69270477794</v>
       </c>
       <c r="O24" t="n">
-        <v>2371.535469249458</v>
+        <v>2349.1564660806</v>
       </c>
       <c r="P24" t="n">
         <v>2554.178946862809</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>509.2863307027308</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>1498.916270557902</v>
+        <v>1490.273183499903</v>
       </c>
       <c r="T25" t="n">
-        <v>1379.229518531123</v>
+        <v>1490.273183499903</v>
       </c>
       <c r="U25" t="n">
-        <v>1090.100879744681</v>
+        <v>1201.144544713461</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>1201.144544713461</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>911.7273746765006</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>911.7273746765006</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>690.9347955329705</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
         <v>365.8813331823786</v>
@@ -6233,7 +6233,7 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N26" t="n">
         <v>3183.709822619127</v>
@@ -6242,34 +6242,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6291,37 +6291,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1122.004430061687</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="M27" t="n">
-        <v>1890.372576454149</v>
+        <v>1442.796708849622</v>
       </c>
       <c r="N27" t="n">
-        <v>2305.425532778847</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="O27" t="n">
-        <v>2554.178946862809</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>416.2699138005285</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="C28" t="n">
-        <v>247.3337308726216</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119728</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V28" t="n">
-        <v>1336.117678709276</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W28" t="n">
-        <v>1046.700508672316</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="X28" t="n">
-        <v>818.7109577742983</v>
+        <v>377.6878657662453</v>
       </c>
       <c r="Y28" t="n">
-        <v>597.9183786307682</v>
+        <v>377.6878657662453</v>
       </c>
     </row>
     <row r="29">
@@ -6440,28 +6440,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805461</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514082</v>
@@ -6470,43 +6470,43 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231262</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141866</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465299</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614723</v>
       </c>
     </row>
     <row r="30">
@@ -6528,40 +6528,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>510.3034215191122</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M30" t="n">
-        <v>1278.671567911574</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N30" t="n">
-        <v>1623.192223549192</v>
+        <v>1569.24764349283</v>
       </c>
       <c r="O30" t="n">
-        <v>2292.655984851851</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3459.155393916676</v>
+        <v>3833.526634149342</v>
       </c>
       <c r="C31" t="n">
-        <v>3459.155393916676</v>
+        <v>3664.590451221435</v>
       </c>
       <c r="D31" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.57340236873</v>
       </c>
       <c r="E31" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.57340236873</v>
       </c>
       <c r="F31" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.57340236873</v>
       </c>
       <c r="G31" t="n">
-        <v>3459.155393916676</v>
+        <v>3609.57340236873</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916676</v>
+        <v>3459.155393916673</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380585</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625197</v>
+        <v>3621.723490625195</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636326</v>
+        <v>3869.435535636324</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403509</v>
+        <v>4141.002278403507</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S31" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T31" t="n">
-        <v>4520.375241843983</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="U31" t="n">
-        <v>4231.246603057541</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="V31" t="n">
-        <v>3976.562114851654</v>
+        <v>4571.725934227849</v>
       </c>
       <c r="W31" t="n">
-        <v>3687.144944814693</v>
+        <v>4282.308764190889</v>
       </c>
       <c r="X31" t="n">
-        <v>3459.155393916676</v>
+        <v>4054.319213292872</v>
       </c>
       <c r="Y31" t="n">
-        <v>3459.155393916676</v>
+        <v>3833.526634149342</v>
       </c>
     </row>
     <row r="32">
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
         <v>2059.358867610191</v>
@@ -6683,10 +6683,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6701,22 +6701,22 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
@@ -6780,19 +6780,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>343.9822193667499</v>
+        <v>754.8724882112625</v>
       </c>
       <c r="M33" t="n">
-        <v>1061.868966964226</v>
+        <v>1523.240634603724</v>
       </c>
       <c r="N33" t="n">
-        <v>1866.280545228376</v>
+        <v>1523.240634603724</v>
       </c>
       <c r="O33" t="n">
-        <v>2145.820610447073</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>245.130185042679</v>
+        <v>496.665036439558</v>
       </c>
       <c r="C34" t="n">
-        <v>245.130185042679</v>
+        <v>496.665036439558</v>
       </c>
       <c r="D34" t="n">
-        <v>245.130185042679</v>
+        <v>496.665036439558</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>348.7519428571649</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>180.5766211769855</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>180.5766211769855</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028584</v>
@@ -6883,25 +6883,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1306.350032969985</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>1017.221394183544</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>762.5369059776569</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>473.1197359406963</v>
+        <v>496.665036439558</v>
       </c>
       <c r="X34" t="n">
-        <v>245.130185042679</v>
+        <v>496.665036439558</v>
       </c>
       <c r="Y34" t="n">
-        <v>245.130185042679</v>
+        <v>496.665036439558</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6920,16 +6920,16 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6938,7 +6938,7 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,7 +6953,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>264.0657286834808</v>
       </c>
       <c r="L36" t="n">
-        <v>493.5013994809973</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="M36" t="n">
-        <v>813.8367190106992</v>
+        <v>794.1790493843999</v>
       </c>
       <c r="N36" t="n">
-        <v>1618.24829727485</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O36" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P36" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>4037.957270257085</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>3869.021087329178</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>3721.107993746785</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916676</v>
@@ -7120,25 +7120,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.020508932908</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V37" t="n">
-        <v>3893.336020727022</v>
+        <v>4440.398314230854</v>
       </c>
       <c r="W37" t="n">
-        <v>3603.918850690061</v>
+        <v>4440.398314230854</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916676</v>
+        <v>4440.398314230854</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>4219.605735087324</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
         <v>2059.358867610191</v>
@@ -7157,25 +7157,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7196,7 +7196,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231263</v>
@@ -7211,13 +7211,13 @@
         <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7239,37 +7239,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>452.5377573864724</v>
+        <v>818.3643854923162</v>
       </c>
       <c r="M39" t="n">
-        <v>772.8730769161741</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.284655180325</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O39" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P39" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028583</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028583</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028583</v>
+        <v>506.0596387883054</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028583</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028583</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T40" t="n">
-        <v>1379.229518531123</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U40" t="n">
-        <v>1090.100879744681</v>
+        <v>1138.850317304545</v>
       </c>
       <c r="V40" t="n">
-        <v>835.416391538794</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="W40" t="n">
-        <v>545.9992215018333</v>
+        <v>884.1658290986585</v>
       </c>
       <c r="X40" t="n">
-        <v>318.0096706038159</v>
+        <v>656.1762782006411</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028583</v>
+        <v>656.1762782006411</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
         <v>1701.09316900344</v>
@@ -7397,43 +7397,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7442,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7485,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>772.8730769161741</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.284655180325</v>
+        <v>1364.414563824403</v>
       </c>
       <c r="O42" t="n">
-        <v>1826.038069264287</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>377.6878657662453</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C43" t="n">
-        <v>208.7516828383384</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D43" t="n">
-        <v>208.7516828383384</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E43" t="n">
-        <v>208.7516828383384</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F43" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U43" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V43" t="n">
-        <v>1297.535630674993</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="W43" t="n">
-        <v>1008.118460638033</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="X43" t="n">
-        <v>780.1289097400152</v>
+        <v>1098.423997082767</v>
       </c>
       <c r="Y43" t="n">
-        <v>559.336330596485</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="44">
@@ -7625,46 +7625,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003437</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155852</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805432</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822454</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
         <v>4801.62743720783</v>
@@ -7673,22 +7673,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,28 +7725,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>222.5746515181232</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>794.1790493843999</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2294.795520681547</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q45" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926846</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>799.8610847926846</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>649.7444453803487</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>562.7003690904326</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>415.8104215925221</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123427</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7831,25 +7831,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229243</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>981.5095496229243</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>194.3570488013773</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8544,7 +8544,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>274.4264991783507</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8772,25 +8772,25 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>288.4091825776752</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>319.5917109924206</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9182,7 +9182,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599058</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9240,28 +9240,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>25.31211356867345</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,19 +9486,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>65.1976034505177</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,7 +9714,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9723,16 +9723,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>62.12570191904859</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,10 +10191,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,10 +10437,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>5.437137881066747</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10449,7 +10449,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>286.2102957519748</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10686,7 +10686,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,7 +10899,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>264.4652370125786</v>
@@ -10911,7 +10911,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711659</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714832</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11145,10 +11145,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>218.9915405991426</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11385,13 +11385,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>371.8485222601372</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23419,22 +23419,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>115.7188962768329</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,16 +23470,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>5.574551000449162</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>54.62829949862794</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>135.7117895898529</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>48.75693659211575</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,22 +23935,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>149.1950112065038</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>3.118140440917728</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24181,7 +24181,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>75.26883114644346</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24379,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,22 +24412,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>189.3641537961839</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0576765518774</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24619,7 +24619,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>200.9313897974811</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>134.3502443572484</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24838,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>94.14859465403464</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836031</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583891</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>27.89331104473932</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,22 +25123,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>30.90698584635149</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25309,16 +25309,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,25 +25360,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>57.43350818661321</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338571</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25552,22 +25552,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,28 +25594,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>79.43092547709136</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>237.6572210651501</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
@@ -25843,16 +25843,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>52.77080983974787</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>150.5145184030928</v>
       </c>
     </row>
     <row r="44">
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986279</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>60.26032711955233</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642721</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26068,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037929</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>197.9208099836034</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583894</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985775</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.1376433238281</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.2135016472</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>656833.4158914266</v>
       </c>
       <c r="C2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914263</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914261</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="G2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.495580334</v>
-      </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
+        <v>625646.4955803342</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="K2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803342</v>
-      </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803343</v>
       </c>
       <c r="N2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="O2" t="n">
-        <v>625646.4955803344</v>
-      </c>
       <c r="P2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.920889983215602e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768965</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338371</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806189</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759919</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905759237</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905756756</v>
       </c>
     </row>
     <row r="5">
@@ -26473,25 +26473,25 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340948</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="J5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
@@ -26503,13 +26503,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="O5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="P5" t="n">
         <v>91987.32594871661</v>
-      </c>
-      <c r="O5" t="n">
-        <v>91987.32594871662</v>
-      </c>
-      <c r="P5" t="n">
-        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671464</v>
+        <v>-155052.6805671463</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.198647398</v>
+        <v>434915.1986473978</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473974</v>
+        <v>434915.1986473979</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145683</v>
+        <v>7711.339464145014</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410415</v>
+        <v>532871.375941042</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410415</v>
+        <v>532871.3759410419</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410419</v>
+        <v>532871.3759410417</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.3759410417</v>
+        <v>532871.3759410416</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484486</v>
+        <v>356448.1567484488</v>
       </c>
       <c r="K6" t="n">
-        <v>532871.3759410417</v>
+        <v>532871.3759410414</v>
       </c>
       <c r="L6" t="n">
         <v>532871.3759410417</v>
@@ -26555,13 +26555,13 @@
         <v>398070.3607072046</v>
       </c>
       <c r="N6" t="n">
+        <v>532871.3759410416</v>
+      </c>
+      <c r="O6" t="n">
         <v>532871.3759410415</v>
       </c>
-      <c r="O6" t="n">
-        <v>532871.375941042</v>
-      </c>
       <c r="P6" t="n">
-        <v>532871.3759410417</v>
+        <v>532871.3759410416</v>
       </c>
     </row>
   </sheetData>
@@ -26741,19 +26741,19 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.743664217087</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545559</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370133</v>
+        <v>452.638741237014</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,32 +27009,32 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>674.2872727545556</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>540.9263704990178</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>674.2872727545555</v>
       </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>540.9263704990174</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545557</v>
-      </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>230.2927004592223</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>107.4850614916721</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27543,7 +27543,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27579,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27597,13 +27597,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>227.1700222141574</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>129.5440971422202</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>248.6152092286077</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>103.4908765888861</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27783,16 +27783,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
         <v>45.199959188537</v>
@@ -27819,13 +27819,13 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>95.61058845695075</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>1.885271837007167</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>134.0915024717478</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>284.5939820565365</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448612</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>107.5108092938504</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853696</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,31 +28053,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491425</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>117.506269166378</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -30283,7 +30283,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>190.1500580638411</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31364,7 +31364,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,10 +31376,10 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>167.9005868329995</v>
       </c>
       <c r="O6" t="n">
-        <v>73.87984549392741</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340047</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141001</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554472</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727437</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081579</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630672</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405369</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338307</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119868</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954669</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044139</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633806</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727386</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473559</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472037</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141116</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188921</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890692</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396483</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649103</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478009</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983124</v>
+        <v>86.43447689993508</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736702</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923049</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479579</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639066</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034986</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131474</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372668</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619158</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078616</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644448</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492007</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813582</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302246</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246925</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
-        <v>106.7776065917251</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666595</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175852</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383808</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678013</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701166</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695337</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197226</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315613</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,10 +31750,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31762,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>118.2528309589144</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961197</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -32081,19 +32081,19 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>249.5159911824345</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>368.9552512585109</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>362.5890066571937</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32731,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32786,25 +32786,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>175.1732645054592</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32959,7 +32959,7 @@
         <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540889</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946992</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>71.2447481687679</v>
+        <v>21.05666852266364</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33263,22 +33263,22 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>308.5258077792151</v>
       </c>
       <c r="P30" t="n">
-        <v>159.4068226782426</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710956</v>
@@ -33497,31 +33497,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>401.5670990583575</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33737,28 +33737,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>168.5622361295452</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S38" t="n">
         <v>76.06970478104648</v>
@@ -33971,28 +33971,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>81.10496900926114</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>209.9396523866412</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34208,28 +34208,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>323.0126678614004</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
@@ -34445,31 +34445,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>21.5211843113392</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34784,7 +34784,7 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>513.7210878918227</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34796,7 +34796,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,10 +35024,10 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932197</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262125</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343421</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435304</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060967</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492239</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530454</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.93761631168</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898691</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770697</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031299</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713858</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.441326826294</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338904</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>325.1459203262111</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735648</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137342</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713961</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850086</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535657</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458881</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557982</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873156</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L12" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>369.5189057911995</v>
       </c>
       <c r="P12" t="n">
-        <v>495.5025975091999</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209233</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415071</v>
       </c>
       <c r="K14" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>568.8494159484451</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>597.5166534426547</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35802,19 +35802,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
         <v>236.2373515206029</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35902,10 +35902,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>335.7364906191397</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3590068140665</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>594.8749721807787</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
-        <v>347.5613056916259</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>523.1739267656794</v>
+        <v>395.3202753170614</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q24" t="n">
         <v>70.09551364982758</v>
@@ -36607,7 +36607,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951475</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
         <v>570.6060255109123</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>419.2454104289881</v>
+        <v>369.0573307828839</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>559.7918826115002</v>
       </c>
       <c r="P30" t="n">
-        <v>25.43241526391239</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556565</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299107</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187487</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>725.1381288863391</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>287.8008401221749</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>535.4680007079991</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>419.8283109618303</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,25 +37622,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>313.3909345328461</v>
       </c>
       <c r="M39" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>461.2057272189263</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303341</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37795,7 +37795,7 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502048</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>76.85750667712428</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>507.5010290870073</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>345.0922141393208</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>240.5068101768039</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3082449.214532659</v>
+        <v>3157978.884197464</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>674230.6666097078</v>
+        <v>948047.3148971047</v>
       </c>
     </row>
     <row r="8">
@@ -659,19 +661,19 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>11.69592044740018</v>
       </c>
       <c r="F2" t="n">
-        <v>176.5833452824891</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -713,10 +715,10 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -725,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -792,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888687</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -814,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,10 +870,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>43.83743093372782</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>89.04055620987458</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>237.9332843063845</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -953,7 +955,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>282.7470620671675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1060,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9.696366103188039</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1075,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>223.82438355203</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>272.0523917973802</v>
       </c>
       <c r="D8" t="n">
-        <v>220.5915391489351</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1186,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1306,10 +1308,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>27.45481249848788</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1333,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>195.4109594035739</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385011</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1537,16 +1539,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>57.41035311003439</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>280.6628013981282</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1594,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1613,7 +1615,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722625</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>12.90368342835946</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1810,25 +1812,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>76.9237114367005</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1904,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2002,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>118.4898845065121</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>37.34399593987693</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,13 +2080,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2293,19 +2295,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>210.9685212521339</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>55.2220913850434</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2324,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2473,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2493,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>8.556656187419316</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>59.77945773664946</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2606,13 +2608,13 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385017</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2710,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>77.41339447783582</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2761,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2770,13 +2772,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>152.1727539793426</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896913</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113169</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274076</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2842,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T29" t="n">
-        <v>208.4827883385018</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.2409687174129</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>54.4668783641776</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>109.7395205132413</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.913828367536</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3004,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985772</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.5229983365909</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>147.5295163971354</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>82.52593441953267</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3320,7 +3322,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498008</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>120.5409823364424</v>
       </c>
       <c r="V37" t="n">
-        <v>194.7041351372148</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,19 +3669,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3711,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>48.58013133342728</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>128.5579371357843</v>
       </c>
     </row>
     <row r="41">
@@ -3901,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>53.78677762292671</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.07013494900198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3974,28 +3976,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206851</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722619</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>411.9645167896916</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113138</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274088</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.950364805199</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U44" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V44" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560537</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4135,22 +4137,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182125</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>86.17363552701696</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229314</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675362</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4180,13 +4182,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -4195,13 +4197,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.5229983365911</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>119.7071605086442</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1130.934501327943</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="C2" t="n">
-        <v>1130.934501327943</v>
+        <v>567.2866436578645</v>
       </c>
       <c r="D2" t="n">
-        <v>1130.934501327943</v>
+        <v>567.2866436578645</v>
       </c>
       <c r="E2" t="n">
-        <v>1130.934501327943</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
         <v>534.603677789272</v>
@@ -4325,31 +4327,31 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
@@ -4358,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2247.308246834948</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>2247.308246834948</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1894.539591564834</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X2" t="n">
-        <v>1521.073833303755</v>
+        <v>936.2491605982761</v>
       </c>
       <c r="Y2" t="n">
-        <v>1130.934501327943</v>
+        <v>936.2491605982761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1297.647259770169</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4471,67 +4473,67 @@
         <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>456.5405636086444</v>
       </c>
       <c r="V4" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="W4" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="X4" t="n">
-        <v>473.4444960005474</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="Y4" t="n">
-        <v>383.5045402329973</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="C5" t="n">
-        <v>1376.372217881286</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1276.695321531225</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>865.7094167416178</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>447.7456086398047</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
@@ -4565,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W5" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X5" t="n">
-        <v>2048.575150942547</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y5" t="n">
-        <v>1762.972057945408</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4656,31 +4658,31 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3069090307627</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>109.3938154483695</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>109.3938154483695</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W7" t="n">
-        <v>500.820796875036</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="X7" t="n">
-        <v>274.7355609638946</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>438.9553738610024</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1937.08349269302</v>
+        <v>1111.918385033061</v>
       </c>
       <c r="C8" t="n">
-        <v>1568.120975752609</v>
+        <v>837.1179892781315</v>
       </c>
       <c r="D8" t="n">
-        <v>1345.301239238533</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4832,22 +4834,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2224.752638628377</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1871.983983358263</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757142</v>
+        <v>1498.518225097183</v>
       </c>
       <c r="Y8" t="n">
-        <v>2323.683332757142</v>
+        <v>1498.518225097183</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4880,7 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4890,7 +4892,7 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>250.6112985851278</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="C10" t="n">
-        <v>81.67511565722089</v>
+        <v>361.80799380017</v>
       </c>
       <c r="D10" t="n">
-        <v>81.67511565722089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E10" t="n">
-        <v>81.67511565722089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F10" t="n">
-        <v>81.67511565722089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G10" t="n">
-        <v>81.67511565722089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
-        <v>81.67511565722089</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>530.7441767280769</v>
       </c>
       <c r="Y10" t="n">
-        <v>250.6112985851278</v>
+        <v>530.7441767280769</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5020,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5051,34 +5053,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5106,31 +5108,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>508.1073603047986</v>
+        <v>412.607977814708</v>
       </c>
       <c r="L12" t="n">
-        <v>1122.004430061688</v>
+        <v>412.607977814708</v>
       </c>
       <c r="M12" t="n">
-        <v>1442.339749591389</v>
+        <v>412.607977814708</v>
       </c>
       <c r="N12" t="n">
-        <v>1442.339749591389</v>
+        <v>1217.019556078859</v>
       </c>
       <c r="O12" t="n">
         <v>1808.163466324677</v>
@@ -5173,40 +5175,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>563.7235151749151</v>
+        <v>450.0103882072907</v>
       </c>
       <c r="C13" t="n">
-        <v>563.7235151749151</v>
+        <v>450.0103882072907</v>
       </c>
       <c r="D13" t="n">
-        <v>563.7235151749151</v>
+        <v>450.0103882072907</v>
       </c>
       <c r="E13" t="n">
-        <v>415.8104215925219</v>
+        <v>302.0972946248976</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>155.2073471269872</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>155.2073471269872</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>155.2073471269872</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262961</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U13" t="n">
-        <v>791.7130660729324</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V13" t="n">
-        <v>791.7130660729324</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="W13" t="n">
-        <v>791.7130660729324</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="X13" t="n">
-        <v>563.7235151749151</v>
+        <v>670.8029673508208</v>
       </c>
       <c r="Y13" t="n">
-        <v>563.7235151749151</v>
+        <v>450.0103882072907</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
         <v>1701.093169003441</v>
@@ -5273,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5294,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5352,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028587</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L15" t="n">
-        <v>660.3780132492466</v>
+        <v>642.5710836830572</v>
       </c>
       <c r="M15" t="n">
-        <v>980.7133327789484</v>
+        <v>962.906403212759</v>
       </c>
       <c r="N15" t="n">
-        <v>1785.124911043099</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>260.6691235773521</v>
+        <v>711.3743239205529</v>
       </c>
       <c r="C16" t="n">
-        <v>260.6691235773521</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D16" t="n">
-        <v>247.6350999123426</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E16" t="n">
-        <v>247.6350999123426</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F16" t="n">
         <v>247.6350999123426</v>
@@ -5428,22 +5430,22 @@
         <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U16" t="n">
-        <v>964.1357418247865</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V16" t="n">
-        <v>709.4512536188996</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W16" t="n">
-        <v>709.4512536188996</v>
+        <v>932.166903064083</v>
       </c>
       <c r="X16" t="n">
-        <v>481.4617027208823</v>
+        <v>932.166903064083</v>
       </c>
       <c r="Y16" t="n">
-        <v>260.6691235773521</v>
+        <v>711.3743239205529</v>
       </c>
     </row>
     <row r="17">
@@ -5510,34 +5512,34 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5555,7 +5557,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,28 +5591,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K18" t="n">
-        <v>388.8958536704856</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L18" t="n">
-        <v>1002.792923427374</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="M18" t="n">
-        <v>1335.172049140323</v>
+        <v>815.42749358476</v>
       </c>
       <c r="N18" t="n">
-        <v>1679.69270477794</v>
+        <v>1619.839071848911</v>
       </c>
       <c r="O18" t="n">
-        <v>2349.1564660806</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>216.9038434870658</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028587</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028587</v>
+        <v>671.7300455988212</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028587</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028587</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5695,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>955.1031435655738</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W19" t="n">
-        <v>665.6859735286132</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X19" t="n">
-        <v>437.6964226305959</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y19" t="n">
-        <v>216.9038434870658</v>
+        <v>709.4512536188989</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5747,55 +5749,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5828,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L21" t="n">
-        <v>811.5008739770942</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1131.836193506796</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="N21" t="n">
-        <v>1476.356849144414</v>
+        <v>1738.457251193969</v>
       </c>
       <c r="O21" t="n">
-        <v>2145.820610447073</v>
+        <v>2407.921012496628</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3459.155393916676</v>
+        <v>4015.609665787367</v>
       </c>
       <c r="C22" t="n">
-        <v>3459.155393916676</v>
+        <v>4015.609665787367</v>
       </c>
       <c r="D22" t="n">
-        <v>3459.155393916676</v>
+        <v>3865.493026375032</v>
       </c>
       <c r="E22" t="n">
-        <v>3459.155393916676</v>
+        <v>3717.579932792638</v>
       </c>
       <c r="F22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H22" t="n">
-        <v>3459.155393916676</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
         <v>3459.155393916676</v>
@@ -5920,40 +5922,40 @@
         <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431056</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436453</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042136</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014292</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S22" t="n">
-        <v>4660.934562929845</v>
+        <v>4549.859459491671</v>
       </c>
       <c r="T22" t="n">
-        <v>4437.14914771935</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="U22" t="n">
-        <v>4224.049631303054</v>
+        <v>4326.074044281177</v>
       </c>
       <c r="V22" t="n">
-        <v>3969.365143097166</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="W22" t="n">
-        <v>3679.947973060206</v>
+        <v>4071.38955607529</v>
       </c>
       <c r="X22" t="n">
-        <v>3679.947973060206</v>
+        <v>4015.609665787367</v>
       </c>
       <c r="Y22" t="n">
-        <v>3459.155393916676</v>
+        <v>4015.609665787367</v>
       </c>
     </row>
     <row r="23">
@@ -5963,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
@@ -5987,16 +5989,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6008,7 +6010,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
@@ -6023,16 +6025,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690733</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409606</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748355</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742899</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769784</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373969</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805657</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>2334.498159098441</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>2500.819361250803</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>3114.716431007691</v>
       </c>
       <c r="M24" t="n">
-        <v>1288.32563221405</v>
+        <v>3883.084577400153</v>
       </c>
       <c r="N24" t="n">
-        <v>1679.69270477794</v>
+        <v>4091.800537194583</v>
       </c>
       <c r="O24" t="n">
-        <v>2349.1564660806</v>
+        <v>4340.553951278545</v>
       </c>
       <c r="P24" t="n">
-        <v>2554.178946862809</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R24" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S24" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098067</v>
       </c>
       <c r="T24" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021845</v>
       </c>
       <c r="U24" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641232</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409489</v>
       </c>
       <c r="W24" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681288</v>
       </c>
       <c r="X24" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475755</v>
       </c>
       <c r="Y24" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710801</v>
       </c>
     </row>
     <row r="25">
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>509.2863307027308</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6169,28 +6171,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S25" t="n">
-        <v>1490.273183499903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T25" t="n">
-        <v>1490.273183499903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U25" t="n">
-        <v>1201.144544713461</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V25" t="n">
-        <v>1201.144544713461</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>911.7273746765006</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>911.7273746765006</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>690.9347955329705</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6224,10 +6226,10 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6260,16 +6262,16 @@
         <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,16 +6308,16 @@
         <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571608</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L27" t="n">
-        <v>674.4285624571608</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M27" t="n">
-        <v>1442.796708849622</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="N27" t="n">
-        <v>1808.163466324677</v>
+        <v>1207.29799103357</v>
       </c>
       <c r="O27" t="n">
         <v>1808.163466324677</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>377.6878657662453</v>
+        <v>3648.885333252137</v>
       </c>
       <c r="C28" t="n">
-        <v>208.7516828383384</v>
+        <v>3648.885333252137</v>
       </c>
       <c r="D28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>3570.689985294727</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241957</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431055</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436452</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>4822.021130042135</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="T28" t="n">
-        <v>1075.21084526296</v>
+        <v>4637.069157803797</v>
       </c>
       <c r="U28" t="n">
-        <v>786.0822064765186</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="V28" t="n">
-        <v>531.3977182706318</v>
+        <v>4347.940519017355</v>
       </c>
       <c r="W28" t="n">
-        <v>377.6878657662453</v>
+        <v>4058.523348980394</v>
       </c>
       <c r="X28" t="n">
-        <v>377.6878657662453</v>
+        <v>3830.533798082377</v>
       </c>
       <c r="Y28" t="n">
-        <v>377.6878657662453</v>
+        <v>3830.533798082377</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805461</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,19 +6463,19 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6482,31 +6484,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207828</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231262</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141866</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465299</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614723</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6540,28 +6542,28 @@
         <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>904.39166832551</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>1224.726987855212</v>
+        <v>327.180197328635</v>
       </c>
       <c r="N30" t="n">
-        <v>1569.24764349283</v>
+        <v>1131.591775592786</v>
       </c>
       <c r="O30" t="n">
-        <v>2123.441607278215</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3833.526634149342</v>
+        <v>545.1765965867977</v>
       </c>
       <c r="C31" t="n">
-        <v>3664.590451221435</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="D31" t="n">
-        <v>3609.57340236873</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="E31" t="n">
-        <v>3609.57340236873</v>
+        <v>376.2404136588908</v>
       </c>
       <c r="F31" t="n">
-        <v>3609.57340236873</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>3609.57340236873</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>3459.155393916673</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>3621.723490625195</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>3869.435535636324</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>4141.002278403507</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O31" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T31" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U31" t="n">
-        <v>4571.725934227849</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V31" t="n">
-        <v>4571.725934227849</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W31" t="n">
-        <v>4282.308764190889</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X31" t="n">
-        <v>4054.319213292872</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y31" t="n">
-        <v>3833.526634149342</v>
+        <v>726.8250614170374</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6716,31 +6718,31 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>225.3081924166772</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>636.1984612611899</v>
       </c>
       <c r="L33" t="n">
-        <v>754.8724882112625</v>
+        <v>636.1984612611899</v>
       </c>
       <c r="M33" t="n">
-        <v>1523.240634603724</v>
+        <v>1404.566607653651</v>
       </c>
       <c r="N33" t="n">
-        <v>1523.240634603724</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>496.665036439558</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C34" t="n">
-        <v>496.665036439558</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D34" t="n">
-        <v>496.665036439558</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>348.7519428571649</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>348.7519428571649</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>180.5766211769855</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>180.5766211769855</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6895,13 +6897,13 @@
         <v>786.0822064765186</v>
       </c>
       <c r="W34" t="n">
-        <v>496.665036439558</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="X34" t="n">
-        <v>496.665036439558</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="Y34" t="n">
-        <v>496.665036439558</v>
+        <v>565.2896273329885</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6929,16 +6931,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6953,10 +6955,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014292</v>
@@ -6968,19 +6970,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7014,19 +7016,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>264.0657286834808</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L36" t="n">
-        <v>794.1790493843999</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M36" t="n">
-        <v>794.1790493843999</v>
+        <v>1156.807040804714</v>
       </c>
       <c r="N36" t="n">
-        <v>1138.699705022018</v>
+        <v>1559.410052240715</v>
       </c>
       <c r="O36" t="n">
         <v>1808.163466324677</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4037.957270257085</v>
+        <v>4094.598000559212</v>
       </c>
       <c r="C37" t="n">
-        <v>3869.021087329178</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="D37" t="n">
-        <v>3869.021087329178</v>
+        <v>3925.661817631305</v>
       </c>
       <c r="E37" t="n">
-        <v>3721.107993746785</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F37" t="n">
-        <v>3721.107993746785</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G37" t="n">
-        <v>3721.107993746785</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H37" t="n">
-        <v>3570.689985294728</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I37" t="n">
         <v>3459.155393916676</v>
@@ -7120,25 +7122,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S37" t="n">
-        <v>4860.854573014292</v>
+        <v>4660.934562929845</v>
       </c>
       <c r="T37" t="n">
-        <v>4637.069157803799</v>
+        <v>4437.14914771935</v>
       </c>
       <c r="U37" t="n">
-        <v>4637.069157803799</v>
+        <v>4315.390579702742</v>
       </c>
       <c r="V37" t="n">
-        <v>4440.398314230854</v>
+        <v>4315.390579702742</v>
       </c>
       <c r="W37" t="n">
-        <v>4440.398314230854</v>
+        <v>4315.390579702742</v>
       </c>
       <c r="X37" t="n">
-        <v>4440.398314230854</v>
+        <v>4315.390579702742</v>
       </c>
       <c r="Y37" t="n">
-        <v>4219.605735087324</v>
+        <v>4094.598000559212</v>
       </c>
     </row>
     <row r="38">
@@ -7151,16 +7153,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
         <v>488.193237080547</v>
@@ -7199,10 +7201,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7251,25 +7253,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>818.3643854923162</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M39" t="n">
-        <v>1138.699705022018</v>
+        <v>1211.711801605471</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>1749.087263291269</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2418.551024593929</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>656.1762782006411</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C40" t="n">
-        <v>656.1762782006411</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D40" t="n">
-        <v>506.0596387883054</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E40" t="n">
-        <v>506.0596387883054</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F40" t="n">
-        <v>359.1696912903951</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G40" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H40" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7357,25 +7359,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.92115703528</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T40" t="n">
-        <v>1187.92115703528</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U40" t="n">
-        <v>1138.850317304545</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V40" t="n">
-        <v>884.1658290986585</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W40" t="n">
-        <v>884.1658290986585</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X40" t="n">
-        <v>656.1762782006411</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="Y40" t="n">
-        <v>656.1762782006411</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="41">
@@ -7388,52 +7390,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822466</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7442,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7485,28 +7487,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M42" t="n">
-        <v>1364.414563824403</v>
+        <v>1387.765035414674</v>
       </c>
       <c r="N42" t="n">
-        <v>1364.414563824403</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O42" t="n">
-        <v>2033.878325127062</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P42" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
         <v>2623.573505376138</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1029.666285013068</v>
+        <v>488.6586744753688</v>
       </c>
       <c r="C43" t="n">
-        <v>860.7301020851612</v>
+        <v>319.7224915474619</v>
       </c>
       <c r="D43" t="n">
-        <v>710.6134626728254</v>
+        <v>319.7224915474619</v>
       </c>
       <c r="E43" t="n">
-        <v>562.7003690904323</v>
+        <v>319.7224915474619</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>319.7224915474619</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>151.5471698672825</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7594,25 +7596,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>1387.841167119728</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V43" t="n">
-        <v>1387.841167119728</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="W43" t="n">
-        <v>1098.423997082767</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="X43" t="n">
-        <v>1098.423997082767</v>
+        <v>709.4512536188989</v>
       </c>
       <c r="Y43" t="n">
-        <v>1029.666285013068</v>
+        <v>488.6586744753688</v>
       </c>
     </row>
     <row r="44">
@@ -7628,25 +7630,25 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003437</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405193</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155852</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805432</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514082</v>
@@ -7664,19 +7666,19 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7725,28 +7727,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>222.0041442267596</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>347.361704284597</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>577.3248101529462</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>897.6601296826479</v>
       </c>
       <c r="N45" t="n">
-        <v>2294.795520681547</v>
+        <v>1702.071707946799</v>
       </c>
       <c r="O45" t="n">
-        <v>2543.548934765509</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>799.8610847926846</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C46" t="n">
-        <v>799.8610847926846</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D46" t="n">
-        <v>649.7444453803487</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E46" t="n">
-        <v>562.7003690904326</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F46" t="n">
-        <v>415.8104215925221</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123427</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7828,28 +7830,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W46" t="n">
-        <v>1209.499100520942</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="X46" t="n">
-        <v>981.5095496229243</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="Y46" t="n">
-        <v>981.5095496229243</v>
+        <v>1043.139428163128</v>
       </c>
     </row>
   </sheetData>
@@ -8769,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445214</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9006,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>319.5917109924206</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9240,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>25.31211356867345</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9258,10 +9260,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,19 +9488,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>121.4838296120067</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,28 +9719,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>62.12570191904859</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,19 +9956,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -9975,7 +9977,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,13 +10193,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
@@ -10206,13 +10208,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10437,19 +10439,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>5.437137881066747</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,19 +10664,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>286.2102957519748</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>73.47513512320029</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10686,7 +10688,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10908,19 +10910,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711659</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>218.9915405991426</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,10 +11159,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11385,13 +11387,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>371.8485222601372</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23425,16 +23427,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>53.00889235423761</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>5.574551000449162</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23482,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23653,16 +23655,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.7117895898529</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
@@ -23698,25 +23700,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>209.5992868998905</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>48.75693659211575</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>111.2714770783354</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,19 +24183,19 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>75.26883114644346</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>170.4875640039938</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24379,10 +24381,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.3641537961839</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>192.3581855871785</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>71.20207854037653</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24649,7 +24651,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,13 +24660,13 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>134.3502443572484</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24835,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>94.14859465403464</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>35.68152750968993</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633775</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24885,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836031</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583891</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.1376433238279</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>32.30246378480186</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>27.89331104473932</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,16 +25362,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>165.696370062135</v>
       </c>
       <c r="V37" t="n">
-        <v>57.43350818661321</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,19 +25557,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,25 +25599,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>237.6572210651501</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>90.02671621631046</v>
       </c>
     </row>
     <row r="41">
@@ -25789,19 +25791,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>95.12705074460942</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25834,25 +25836,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.5145184030928</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986279</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>60.26032711955233</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>110.4192454642721</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037929</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836034</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583894</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985775</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>98.87749284345058</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="12">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="16">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914263</v>
@@ -26320,40 +26322,40 @@
         <v>656833.4158914264</v>
       </c>
       <c r="E2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="F2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803339</v>
+      </c>
+      <c r="H2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="I2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="J2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="K2" t="n">
+        <v>625646.4955803343</v>
+      </c>
+      <c r="L2" t="n">
         <v>625646.495580334</v>
       </c>
-      <c r="F2" t="n">
-        <v>625646.4955803344</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="N2" t="n">
+        <v>625646.495580334</v>
+      </c>
+      <c r="O2" t="n">
         <v>625646.4955803341</v>
       </c>
-      <c r="H2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="I2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="J2" t="n">
-        <v>625646.4955803342</v>
-      </c>
-      <c r="K2" t="n">
+      <c r="P2" t="n">
         <v>625646.495580334</v>
-      </c>
-      <c r="L2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625646.4955803343</v>
-      </c>
-      <c r="N2" t="n">
-        <v>625646.4955803341</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625646.495580334</v>
-      </c>
-      <c r="P2" t="n">
-        <v>625646.4955803339</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768965</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26415,40 +26417,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.139180619</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.1391806191</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.139180619</v>
-      </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="H4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="I4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758693</v>
-      </c>
       <c r="J4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905759235</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905759919</v>
+        <v>787.7936905759302</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
@@ -26457,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905756756</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26476,16 +26478,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871665</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871662</v>
@@ -26494,10 +26496,10 @@
         <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26506,10 +26508,10 @@
         <v>91987.32594871662</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671463</v>
+        <v>-155052.6805671466</v>
       </c>
       <c r="C6" t="n">
         <v>434915.1986473978</v>
@@ -26528,40 +26530,40 @@
         <v>434915.1986473979</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.339464145014</v>
+        <v>7711.33946414548</v>
       </c>
       <c r="F6" t="n">
+        <v>532871.3759410419</v>
+      </c>
+      <c r="G6" t="n">
+        <v>532871.3759410414</v>
+      </c>
+      <c r="H6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="I6" t="n">
         <v>532871.375941042</v>
       </c>
-      <c r="G6" t="n">
-        <v>532871.3759410419</v>
-      </c>
-      <c r="H6" t="n">
+      <c r="J6" t="n">
+        <v>356448.1567484489</v>
+      </c>
+      <c r="K6" t="n">
         <v>532871.3759410417</v>
       </c>
-      <c r="I6" t="n">
+      <c r="L6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="M6" t="n">
+        <v>398070.3607072043</v>
+      </c>
+      <c r="N6" t="n">
+        <v>532871.3759410415</v>
+      </c>
+      <c r="O6" t="n">
         <v>532871.3759410416</v>
       </c>
-      <c r="J6" t="n">
-        <v>356448.1567484488</v>
-      </c>
-      <c r="K6" t="n">
-        <v>532871.3759410414</v>
-      </c>
-      <c r="L6" t="n">
-        <v>532871.3759410417</v>
-      </c>
-      <c r="M6" t="n">
-        <v>398070.3607072046</v>
-      </c>
-      <c r="N6" t="n">
-        <v>532871.3759410416</v>
-      </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>532871.3759410415</v>
-      </c>
-      <c r="P6" t="n">
-        <v>532871.3759410416</v>
       </c>
     </row>
   </sheetData>
@@ -26735,25 +26737,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541002</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.638741237014</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,19 +27381,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>370.2344496248616</v>
       </c>
       <c r="F2" t="n">
-        <v>230.2927004592223</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27433,10 +27435,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27445,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,16 +27584,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>242.4444433082499</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27603,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>129.5440971422202</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>85.98948845797261</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27673,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27682,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>103.4908765888861</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27780,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>157.6134361558629</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27795,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>1.885271837007167</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>93.2204999736274</v>
       </c>
       <c r="D8" t="n">
-        <v>134.0915024717478</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28026,13 +28028,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>107.5108092938504</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,22 +28055,22 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>56.72668392025406</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28077,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29332,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29560,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29746,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,25 +31120,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>11.76595806653279</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>190.1500580638411</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -31376,28 +31378,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>167.9005868329995</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>111.7343803072865</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31610,31 +31612,31 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
-        <v>86.43447689993508</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>118.2528309589144</v>
+        <v>345.848986022077</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>308.9107038098575</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,22 +32314,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>237.0509067752711</v>
       </c>
       <c r="P18" t="n">
         <v>341.0678223458549</v>
@@ -32461,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>362.5890066571937</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32627,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,10 +32639,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32649,19 +32651,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32731,7 +32733,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
         <v>76.06970478104648</v>
@@ -32789,19 +32791,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>342.1659138958894</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>341.0678223458549</v>
@@ -32810,7 +32812,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677464</v>
@@ -32944,7 +32946,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961197</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -33026,19 +33028,19 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>21.05666852266364</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>355.6687486940862</v>
       </c>
       <c r="P27" t="n">
         <v>341.0678223458549</v>
@@ -33047,7 +33049,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677464</v>
@@ -33260,22 +33262,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>308.5258077792151</v>
+        <v>421.402287424878</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458549</v>
@@ -33497,13 +33499,13 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>130.1315417872593</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>452.5584109724845</v>
@@ -33518,10 +33520,10 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33679,7 +33681,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
         <v>76.06970478104648</v>
@@ -33734,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -33746,10 +33748,10 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458549</v>
@@ -33758,7 +33760,7 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33971,19 +33973,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>81.10496900926114</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>194.8028343921007</v>
       </c>
       <c r="O39" t="n">
         <v>424.9599466855526</v>
@@ -33992,7 +33994,7 @@
         <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34211,28 +34213,28 @@
         <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>191.9134873893292</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677464</v>
@@ -34390,7 +34392,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S44" t="n">
         <v>76.06970478104648</v>
@@ -34445,22 +34447,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>126.794119373201</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34469,7 +34471,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677464</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>513.7210878918227</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35024,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>515.9012490932197</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>296.2227415328935</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
-        <v>369.5189057911995</v>
+        <v>597.1150608543621</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209233</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>568.8494159484451</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>177.5689917265242</v>
       </c>
       <c r="O15" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>335.7364906191397</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>488.3169816075562</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,28 +36123,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>594.8749721807787</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>454.6784030100197</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,25 +36439,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>395.3202753170614</v>
+        <v>210.8242018125561</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36594,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415072</v>
       </c>
       <c r="K26" t="n">
         <v>528.689756130333</v>
@@ -36674,19 +36676,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004661</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>369.0573307828839</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>606.9348235263712</v>
       </c>
       <c r="P27" t="n">
         <v>525.5561835714618</v>
@@ -36908,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>559.7918826115002</v>
+        <v>672.668362257163</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>129.3849504610014</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>287.8008401221749</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37327,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>535.4680007079991</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>406.6697085212131</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>525.5561835714618</v>
@@ -37619,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>313.3909345328461</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>542.803496652321</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303341</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
@@ -37859,25 +37861,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>76.85750667712428</v>
+        <v>515.4845172173108</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38038,7 +38040,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>126.0475280469432</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
-        <v>240.5068101768039</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3157978.884197464</v>
+        <v>3150961.869305754</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>948047.3148971047</v>
+        <v>635796.8045083034</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.51166597</v>
+        <v>1169509.511665969</v>
       </c>
     </row>
     <row r="9">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>11.69592044740018</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>15.94830397803289</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,16 +706,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888687</v>
+        <v>225.8879277888686</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -870,13 +870,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>43.83743093372782</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>172.20753798338</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -913,10 +913,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>237.9332843063845</v>
+        <v>17.23430169187254</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>9.696366103188039</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1104,16 +1104,16 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>203.1609600883621</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1135,19 +1135,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>272.0523917973802</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>50.68035820658884</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>44.82579829756107</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>195.4109594035739</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385011</v>
+        <v>208.482788338503</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>57.41035311003439</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>166.9311856720012</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1767,22 +1767,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1818,22 +1818,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>76.9237114367005</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>37.34399593987693</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,13 +2058,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>64.03417465124704</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2244,13 +2244,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
@@ -2295,16 +2295,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.8435192151922</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>55.2220913850434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2326,7 +2326,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -2535,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>59.77945773664946</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498019</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2718,10 +2718,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>77.41339447783582</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2763,22 +2763,22 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>31.70036527687827</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>176.8688121773851</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,10 +2961,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>109.7395205132413</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,25 +3000,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>147.5295163971354</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3246,16 +3246,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,22 +3426,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>120.5409823364424</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3666,22 +3666,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>18.94651169068112</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,28 +3708,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>128.5579371357843</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>118.4898845065126</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>53.78677762292671</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>143.3158222056519</v>
       </c>
       <c r="Y46" t="n">
-        <v>119.7071605086442</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>936.2491605982761</v>
+        <v>1249.712458167646</v>
       </c>
       <c r="C2" t="n">
-        <v>567.2866436578645</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="D2" t="n">
-        <v>567.2866436578645</v>
+        <v>880.7499412272343</v>
       </c>
       <c r="E2" t="n">
-        <v>555.4725825998845</v>
+        <v>494.9616886289901</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>83.97578383938253</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>70.05237977797343</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>70.05237977797343</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834949</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.546461473041</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W2" t="n">
-        <v>1309.714918859356</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X2" t="n">
-        <v>936.2491605982761</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y2" t="n">
-        <v>936.2491605982761</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641992</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598711</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>201.8560754027576</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>500.8207968750362</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>456.5405636086444</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="V4" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="W4" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="X4" t="n">
-        <v>201.8560754027576</v>
+        <v>409.5384547146243</v>
       </c>
       <c r="Y4" t="n">
-        <v>201.8560754027576</v>
+        <v>235.5914466506042</v>
       </c>
     </row>
     <row r="5">
@@ -4543,31 +4543,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="C5" t="n">
-        <v>1662.48357412947</v>
+        <v>1644.355031464126</v>
       </c>
       <c r="D5" t="n">
-        <v>1662.48357412947</v>
+        <v>1286.089332857375</v>
       </c>
       <c r="E5" t="n">
-        <v>1276.695321531225</v>
+        <v>900.3010802591311</v>
       </c>
       <c r="F5" t="n">
-        <v>865.7094167416178</v>
+        <v>489.3151754695236</v>
       </c>
       <c r="G5" t="n">
-        <v>447.7456086398047</v>
+        <v>71.35136736771045</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733127</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V5" t="n">
-        <v>1662.48357412947</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="Y5" t="n">
-        <v>1662.48357412947</v>
+        <v>2013.317548404538</v>
       </c>
     </row>
     <row r="6">
@@ -4637,10 +4637,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4664,7 +4664,7 @@
         <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>257.3069090307627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>257.3069090307627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>257.3069090307627</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>109.3938154483695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>109.3938154483695</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4731,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>438.9553738610024</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="V7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>438.9553738610024</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1111.918385033061</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="C8" t="n">
-        <v>837.1179892781315</v>
+        <v>863.1126181035247</v>
       </c>
       <c r="D8" t="n">
-        <v>478.8522906713811</v>
+        <v>504.8469194967742</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>119.05866689853</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T8" t="n">
-        <v>2478.514423990285</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U8" t="n">
-        <v>2224.752638628377</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="V8" t="n">
-        <v>2224.752638628377</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>1871.983983358263</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>1498.518225097183</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1498.518225097183</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="C10" t="n">
-        <v>361.80799380017</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="D10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="E10" t="n">
-        <v>211.6913543878343</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="F10" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G10" t="n">
-        <v>211.6913543878343</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>235.9284171545819</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.60403885025</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594902</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064343</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="V10" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="W10" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="X10" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610023</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.7441767280769</v>
+        <v>438.9553738610023</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,61 +5032,61 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H12" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126481</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>412.607977814708</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L12" t="n">
-        <v>412.607977814708</v>
+        <v>836.471721275012</v>
       </c>
       <c r="M12" t="n">
-        <v>412.607977814708</v>
+        <v>1604.839867667474</v>
       </c>
       <c r="N12" t="n">
-        <v>1217.019556078859</v>
+        <v>1949.360523305092</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>450.0103882072907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="C13" t="n">
-        <v>450.0103882072907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="D13" t="n">
-        <v>450.0103882072907</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="E13" t="n">
-        <v>302.0972946248976</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F13" t="n">
-        <v>155.2073471269872</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G13" t="n">
-        <v>155.2073471269872</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>155.2073471269872</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U13" t="n">
-        <v>898.7925182488382</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V13" t="n">
-        <v>898.7925182488382</v>
+        <v>731.31772835508</v>
       </c>
       <c r="W13" t="n">
-        <v>898.7925182488382</v>
+        <v>731.31772835508</v>
       </c>
       <c r="X13" t="n">
-        <v>670.8029673508208</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="Y13" t="n">
-        <v>450.0103882072907</v>
+        <v>562.7003690904323</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K15" t="n">
-        <v>412.6079778147081</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L15" t="n">
-        <v>642.5710836830572</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>962.906403212759</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N15" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D16" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E16" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V16" t="n">
-        <v>1009.867621687013</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W16" t="n">
-        <v>932.166903064083</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X16" t="n">
-        <v>932.166903064083</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y16" t="n">
-        <v>711.3743239205529</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
         <v>179.8222783822462</v>
@@ -5515,19 +5515,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,19 +5548,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5582,34 +5582,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>508.1073603047985</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L18" t="n">
-        <v>508.1073603047985</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>815.42749358476</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>1619.839071848911</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
         <v>2623.573505376138</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>709.4512536188989</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="C19" t="n">
-        <v>709.4512536188989</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="D19" t="n">
-        <v>671.7300455988212</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
         <v>208.7516828383384</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247858</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U19" t="n">
-        <v>964.1357418247858</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V19" t="n">
-        <v>709.4512536188989</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W19" t="n">
-        <v>709.4512536188989</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="X19" t="n">
-        <v>709.4512536188989</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="Y19" t="n">
-        <v>709.4512536188989</v>
+        <v>355.6416303362487</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5773,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5819,19 +5819,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
         <v>674.428562457161</v>
@@ -5840,19 +5840,19 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>1288.32563221405</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N21" t="n">
-        <v>1738.457251193969</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2407.921012496628</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4015.609665787367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>4015.609665787367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>3865.493026375032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>3717.579932792638</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491671</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281177</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281177</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>4071.38955607529</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>4071.38955607529</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4015.609665787367</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>4015.609665787367</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805464</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5992,49 +5992,49 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>2500.819361250803</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>3114.716431007691</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>3883.084577400153</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>4091.800537194583</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>4340.553951278545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S24" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T24" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U24" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X24" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y24" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="25">
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,28 +6165,28 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>964.1357418247858</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U25" t="n">
-        <v>675.007103038344</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952637</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X25" t="n">
         <v>97.21709146028584</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514075</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="27">
@@ -6293,37 +6293,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126481</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>877.4353633695368</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1207.29799103357</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3648.885333252137</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C28" t="n">
-        <v>3648.885333252137</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D28" t="n">
-        <v>3570.689985294727</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H28" t="n">
-        <v>3570.689985294727</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K28" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>4411.546387431055</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>4645.421365436452</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>4822.021130042135</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>4860.854573014291</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>4860.854573014291</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T28" t="n">
-        <v>4637.069157803797</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U28" t="n">
-        <v>4347.940519017355</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V28" t="n">
-        <v>4347.940519017355</v>
+        <v>977.8470507002676</v>
       </c>
       <c r="W28" t="n">
-        <v>4058.523348980394</v>
+        <v>688.4298806633069</v>
       </c>
       <c r="X28" t="n">
-        <v>3830.533798082377</v>
+        <v>688.4298806633069</v>
       </c>
       <c r="Y28" t="n">
-        <v>3830.533798082377</v>
+        <v>688.4298806633069</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J29" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6475,40 +6475,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028583</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L30" t="n">
-        <v>327.180197328635</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>327.180197328635</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>1131.591775592786</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>545.1765965867977</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C31" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D31" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E31" t="n">
-        <v>376.2404136588908</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U31" t="n">
-        <v>1498.916270557902</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V31" t="n">
-        <v>1244.231782352015</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="W31" t="n">
-        <v>954.8146123150548</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="X31" t="n">
-        <v>726.8250614170374</v>
+        <v>496.6650364395585</v>
       </c>
       <c r="Y31" t="n">
-        <v>726.8250614170374</v>
+        <v>275.8724572960284</v>
       </c>
     </row>
     <row r="32">
@@ -6676,61 +6676,61 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6770,31 +6770,31 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H33" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>225.3081924166772</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>636.1984612611899</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L33" t="n">
-        <v>636.1984612611899</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1404.566607653651</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1749.087263291269</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>416.2699138005285</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C34" t="n">
-        <v>247.3337308726216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S34" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.21084526296</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V34" t="n">
-        <v>786.0822064765186</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W34" t="n">
-        <v>786.0822064765186</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X34" t="n">
-        <v>786.0822064765186</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y34" t="n">
-        <v>565.2896273329885</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K36" t="n">
-        <v>222.5746515181232</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L36" t="n">
-        <v>836.4717212750119</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1156.807040804714</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4094.598000559212</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C37" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D37" t="n">
-        <v>3925.661817631305</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F37" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G37" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929845</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.14914771935</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U37" t="n">
-        <v>4315.390579702742</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V37" t="n">
-        <v>4315.390579702742</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W37" t="n">
-        <v>4315.390579702742</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X37" t="n">
-        <v>4315.390579702742</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y37" t="n">
-        <v>4094.598000559212</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="38">
@@ -7162,40 +7162,40 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G38" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014292</v>
@@ -7241,13 +7241,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
         <v>97.21709146028584</v>
@@ -7256,19 +7256,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.4285624571609</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L39" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1211.711801605471</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
-        <v>1749.087263291269</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2418.551024593929</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
         <v>2623.573505376138</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>563.4221461351941</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="C40" t="n">
-        <v>563.4221461351941</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="D40" t="n">
-        <v>413.3055067228584</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="E40" t="n">
-        <v>265.3924131404652</v>
+        <v>263.2449295548438</v>
       </c>
       <c r="F40" t="n">
-        <v>265.3924131404652</v>
+        <v>116.3549820569334</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028584</v>
+        <v>116.3549820569334</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028584</v>
+        <v>116.3549820569334</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028584</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T40" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U40" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>874.9271131227918</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W40" t="n">
-        <v>874.9271131227918</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X40" t="n">
-        <v>874.9271131227918</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="Y40" t="n">
-        <v>745.0706109654338</v>
+        <v>444.8933943850835</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,19 +7493,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126482</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695368</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1387.765035414674</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2192.176613678825</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>488.6586744753688</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C43" t="n">
-        <v>319.7224915474619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D43" t="n">
-        <v>319.7224915474619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>319.7224915474619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>319.7224915474619</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>151.5471698672825</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U43" t="n">
-        <v>964.1357418247858</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V43" t="n">
-        <v>709.4512536188989</v>
+        <v>955.1031435655742</v>
       </c>
       <c r="W43" t="n">
-        <v>709.4512536188989</v>
+        <v>665.6859735286137</v>
       </c>
       <c r="X43" t="n">
-        <v>709.4512536188989</v>
+        <v>437.6964226305963</v>
       </c>
       <c r="Y43" t="n">
-        <v>488.6586744753688</v>
+        <v>216.9038434870662</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822457</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823786</v>
+        <v>365.881333182377</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514068</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795205</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7675,10 +7675,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
         <v>4262.3578574653</v>
@@ -7715,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>222.0041442267596</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>347.361704284597</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3248101529462</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>897.6601296826479</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1702.071707946799</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2371.535469249458</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2554.178946862809</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>861.4909633328887</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>692.5547804049818</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>542.438140992646</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>394.5250474102529</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U46" t="n">
-        <v>1164.055751909234</v>
+        <v>786.0822064765191</v>
       </c>
       <c r="V46" t="n">
-        <v>1164.055751909234</v>
+        <v>531.3977182706323</v>
       </c>
       <c r="W46" t="n">
-        <v>1164.055751909234</v>
+        <v>241.9805482336716</v>
       </c>
       <c r="X46" t="n">
-        <v>1164.055751909234</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>1043.139428163128</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>422.2865794093296</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,7 +9008,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,19 +9017,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298105</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9488,22 +9488,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>121.4838296120067</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9719,7 +9719,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9728,19 +9728,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,28 +10193,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10433,7 +10433,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10676,19 +10676,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>73.47513512320029</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10910,22 +10910,22 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11153,16 +11153,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>53.00889235423761</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>58.77846971703596</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23655,22 +23655,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23706,22 +23706,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>209.5992868998905</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>111.2714770783354</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
@@ -23946,13 +23946,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>222.488823685344</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24132,13 +24132,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,16 +24183,16 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338511</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>170.4875640039938</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>192.3581855871785</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24606,10 +24606,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>71.20207854037653</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24651,22 +24651,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>220.4372780469497</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>2.963168004552188</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,10 +24849,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>35.68152750968993</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,25 +24888,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.30246378480186</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25134,16 +25134,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25314,22 +25314,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I37" t="n">
         <v>110.419245464272</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>165.696370062135</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
-        <v>110.419245464272</v>
+        <v>91.47273377359085</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,28 +25596,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.02671621631046</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>61.34209567542474</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25800,10 +25800,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>95.12705074460942</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26070,28 +26070,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="Y46" t="n">
-        <v>98.87749284345058</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>742955.2135016471</v>
+        <v>742955.213501647</v>
       </c>
     </row>
     <row r="15">
@@ -26313,25 +26313,25 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914266</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914265</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914263</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914264</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803339</v>
+        <v>625646.4955803346</v>
       </c>
       <c r="F2" t="n">
+        <v>625646.4955803341</v>
+      </c>
+      <c r="G2" t="n">
+        <v>625646.4955803344</v>
+      </c>
+      <c r="H2" t="n">
         <v>625646.4955803343</v>
-      </c>
-      <c r="G2" t="n">
-        <v>625646.4955803339</v>
-      </c>
-      <c r="H2" t="n">
-        <v>625646.4955803341</v>
       </c>
       <c r="I2" t="n">
         <v>625646.4955803343</v>
@@ -26340,22 +26340,22 @@
         <v>625646.4955803343</v>
       </c>
       <c r="K2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="L2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="O2" t="n">
-        <v>625646.4955803341</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.495580334</v>
+        <v>625646.4955803344</v>
       </c>
     </row>
     <row r="3">
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768959</v>
+        <v>525160.0364768963</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.30296939460095e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="C4" t="n">
+        <v>139059.1391806191</v>
+      </c>
+      <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
-      <c r="C4" t="n">
-        <v>139059.139180619</v>
-      </c>
-      <c r="D4" t="n">
-        <v>139059.1391806191</v>
-      </c>
       <c r="E4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905757998</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758695</v>
-      </c>
       <c r="I4" t="n">
+        <v>787.7936905758696</v>
+      </c>
+      <c r="J4" t="n">
+        <v>787.7936905758314</v>
+      </c>
+      <c r="K4" t="n">
+        <v>787.7936905758012</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905759235</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905759302</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905759236</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758103</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
     </row>
     <row r="5">
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671466</v>
+        <v>-155052.6805671465</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.1986473978</v>
+        <v>434915.198647398</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.1986473979</v>
+        <v>434915.198647398</v>
       </c>
       <c r="E6" t="n">
-        <v>7711.33946414548</v>
+        <v>6736.748204424158</v>
       </c>
       <c r="F6" t="n">
-        <v>532871.3759410419</v>
+        <v>531896.78468132</v>
       </c>
       <c r="G6" t="n">
-        <v>532871.3759410414</v>
+        <v>531896.7846813204</v>
       </c>
       <c r="H6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="I6" t="n">
-        <v>532871.375941042</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="J6" t="n">
-        <v>356448.1567484489</v>
+        <v>355473.5654887272</v>
       </c>
       <c r="K6" t="n">
-        <v>532871.3759410417</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="L6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="M6" t="n">
-        <v>398070.3607072043</v>
+        <v>397095.7694474828</v>
       </c>
       <c r="N6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813201</v>
       </c>
       <c r="O6" t="n">
-        <v>532871.3759410416</v>
+        <v>531896.7846813202</v>
       </c>
       <c r="P6" t="n">
-        <v>532871.3759410415</v>
+        <v>531896.7846813203</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541004</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26816,13 +26816,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370138</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990174</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,19 +27387,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>370.2344496248616</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>135.9830122668284</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,16 +27426,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27545,7 +27545,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27590,13 +27590,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>242.4444433082499</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>46.37711536871484</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>85.98948845797261</v>
+        <v>306.6884710724846</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,22 +27663,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27782,13 +27782,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>157.6134361558629</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,19 +27821,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>83.12091415361562</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27855,19 +27855,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>93.2204999736274</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>356.1956875351226</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>100.5952497253702</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28067,10 +28067,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>56.72668392025406</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29562,7 +29562,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -31132,7 +31132,7 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653279</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,13 +31357,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>111.7343803072865</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639065</v>
+        <v>60.29709682323551</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>91.88325107529255</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>345.848986022077</v>
+        <v>245.2687781552862</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>308.9107038098575</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304423</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
-        <v>237.0509067752711</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32560,16 +32560,16 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>342.1659138958894</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>355.6687486940862</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
-        <v>421.402287424878</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L32" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>130.1315417872593</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L35" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446483</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L38" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N39" t="n">
-        <v>194.8028343921007</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>191.9134873893292</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34231,16 +34231,16 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961188</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>126.794119373201</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -34471,13 +34471,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047524</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>486.0228424856235</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>597.1150608543621</v>
+        <v>496.5348529875712</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M15" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
-        <v>177.5689917265242</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O15" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109055</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>488.3169816075562</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36208,22 +36208,22 @@
         <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>454.6784030100197</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,22 +36439,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>210.8242018125561</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415072</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,25 +36676,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>606.9348235263712</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
-        <v>672.668362257163</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>129.3849504610014</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R35" t="n">
         <v>59.82538970349858</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>406.6697085212131</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>542.803496652321</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,22 +37861,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M42" t="n">
-        <v>515.4845172173108</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415063</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0475280469432</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_0_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3150961.869305754</v>
+        <v>3155901.132154785</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>635796.8045083034</v>
+        <v>535443.703242988</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -670,16 +670,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>164.7241364697439</v>
       </c>
       <c r="I2" t="n">
-        <v>15.94830397803289</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -800,7 +800,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>251.6949831609198</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>162.5776147681367</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>172.20753798338</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -913,7 +913,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>17.23430169187254</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>311.3681446327898</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1104,13 +1104,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>190.271393580297</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>203.1609600883621</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>50.68035820658884</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>159.4368283879286</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1302,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>44.82579829756107</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,10 +1311,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>95.61714085086159</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338503</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>10.2312158738351</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1587,16 +1587,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>166.9311856720012</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U14" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>130.728134334151</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>147.7913903289972</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>64.03417465124704</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274049</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>184.4451915927623</v>
       </c>
       <c r="U22" t="n">
-        <v>203.8435192151922</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2478,19 +2478,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>112.0750284960237</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2529,22 +2529,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498019</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>31.70036527687827</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>168.6577987577175</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>176.8688121773851</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>50.03633552408541</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3128,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>126.5118647434429</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056519</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3277,7 +3277,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417128</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>7.211393230647622</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056519</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>17.52239120689691</v>
       </c>
       <c r="I40" t="n">
-        <v>18.94651169068112</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,25 +3711,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>118.4898845065126</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>104.3517462601963</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>143.3158222056519</v>
+        <v>113.5415402216321</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1249.712458167646</v>
+        <v>995.9506728057379</v>
       </c>
       <c r="C2" t="n">
-        <v>880.7499412272343</v>
+        <v>626.9881558653262</v>
       </c>
       <c r="D2" t="n">
-        <v>880.7499412272343</v>
+        <v>626.9881558653262</v>
       </c>
       <c r="E2" t="n">
-        <v>494.9616886289901</v>
+        <v>241.199903267082</v>
       </c>
       <c r="F2" t="n">
-        <v>83.97578383938253</v>
+        <v>234.2544025178785</v>
       </c>
       <c r="G2" t="n">
-        <v>70.05237977797343</v>
+        <v>220.3309984564694</v>
       </c>
       <c r="H2" t="n">
-        <v>70.05237977797343</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4348,34 +4348,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2366.086203674652</v>
+        <v>2112.324418312744</v>
       </c>
       <c r="W2" t="n">
-        <v>2013.317548404538</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X2" t="n">
-        <v>1639.851790143458</v>
+        <v>1386.09000478155</v>
       </c>
       <c r="Y2" t="n">
-        <v>1249.712458167646</v>
+        <v>995.9506728057379</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424006</v>
@@ -4406,46 +4406,46 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641992</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598711</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V4" t="n">
-        <v>409.5384547146243</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="W4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="X4" t="n">
-        <v>409.5384547146243</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.5914466506042</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2013.317548404538</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="C5" t="n">
-        <v>1644.355031464126</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="D5" t="n">
-        <v>1286.089332857375</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>900.3010802591311</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>489.3151754695236</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
-        <v>71.35136736771045</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2327.607124141857</v>
       </c>
       <c r="X5" t="n">
-        <v>2013.317548404538</v>
+        <v>1954.141365880777</v>
       </c>
       <c r="Y5" t="n">
-        <v>2013.317548404538</v>
+        <v>1954.141365880777</v>
       </c>
     </row>
     <row r="6">
@@ -4637,34 +4637,34 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4731,31 +4731,31 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>535.9356573576496</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>308.6274700262513</v>
       </c>
       <c r="U7" t="n">
         <v>308.6274700262513</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>863.1126181035247</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C8" t="n">
-        <v>863.1126181035247</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D8" t="n">
-        <v>504.8469194967742</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E8" t="n">
-        <v>119.05866689853</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533142</v>
@@ -4810,7 +4810,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018223</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="W8" t="n">
-        <v>2013.317548404538</v>
+        <v>2481.073100146768</v>
       </c>
       <c r="X8" t="n">
-        <v>1639.851790143458</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y8" t="n">
-        <v>1249.712458167646</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="E10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="F10" t="n">
-        <v>393.6767897220517</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="G10" t="n">
-        <v>393.6767897220517</v>
+        <v>353.9308493771258</v>
       </c>
       <c r="H10" t="n">
-        <v>235.9284171545819</v>
+        <v>196.182476809656</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
         <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064343</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610023</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
@@ -5032,7 +5032,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,28 +5041,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
         <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
         <v>4860.854573014292</v>
@@ -5071,22 +5071,22 @@
         <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="12">
@@ -5108,37 +5108,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>222.5746515181232</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>836.471721275012</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1604.839867667474</v>
+        <v>1323.128242957076</v>
       </c>
       <c r="N12" t="n">
-        <v>1949.360523305092</v>
+        <v>1667.648898594694</v>
       </c>
       <c r="O12" t="n">
-        <v>2440.930027762787</v>
+        <v>2337.112659897353</v>
       </c>
       <c r="P12" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C13" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D13" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F13" t="n">
         <v>415.8104215925219</v>
@@ -5205,10 +5205,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5217,34 +5217,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609669</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="V13" t="n">
-        <v>731.31772835508</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="W13" t="n">
-        <v>731.31772835508</v>
+        <v>874.9271131227918</v>
       </c>
       <c r="X13" t="n">
-        <v>562.7003690904323</v>
+        <v>646.9375622247744</v>
       </c>
       <c r="Y13" t="n">
-        <v>562.7003690904323</v>
+        <v>426.1449830812443</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,55 +5275,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5354,13 +5354,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K15" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
         <v>1288.32563221405</v>
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>376.1556594977427</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>229.2657119998323</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>229.2657119998323</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5454,34 +5454,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1075.210845262961</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>786.0822064765191</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="V16" t="n">
-        <v>531.3977182706323</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="W16" t="n">
-        <v>241.9805482336716</v>
+        <v>785.7936752259998</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>557.8041243279824</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>557.8041243279824</v>
       </c>
     </row>
     <row r="17">
@@ -5494,40 +5494,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5536,7 +5536,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
         <v>4860.854573014292</v>
@@ -5548,16 +5548,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5582,13 +5582,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
         <v>97.21709146028584</v>
@@ -5597,7 +5597,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
         <v>1288.32563221405</v>
@@ -5606,13 +5606,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O18" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2583.85791185748</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>355.6416303362487</v>
+        <v>823.5191931240375</v>
       </c>
       <c r="C19" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="D19" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="E19" t="n">
-        <v>355.6416303362487</v>
+        <v>674.2349604684848</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
         <v>208.7516828383384</v>
@@ -5679,10 +5679,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5691,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>420.3226148324578</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W19" t="n">
-        <v>355.6416303362487</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X19" t="n">
-        <v>355.6416303362487</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y19" t="n">
-        <v>355.6416303362487</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="20">
@@ -5731,31 +5731,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822459</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5764,37 +5764,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614724</v>
@@ -5819,28 +5819,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M21" t="n">
-        <v>2056.693778606511</v>
+        <v>2056.69377860651</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>358.8683222506741</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.210845262961</v>
+        <v>1312.607996221779</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011506</v>
+        <v>1312.607996221779</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952637</v>
+        <v>1057.923508015892</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>768.5063379789311</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809138</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>540.5167870809138</v>
       </c>
     </row>
     <row r="23">
@@ -5968,67 +5968,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805464</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6059,22 +6059,22 @@
         <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
         <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M24" t="n">
         <v>2056.693778606511</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028584</v>
+        <v>823.5191931240375</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028584</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6153,10 +6153,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6165,34 +6165,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>786.0822064765191</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V25" t="n">
-        <v>531.3977182706323</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W25" t="n">
-        <v>241.9805482336716</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028584</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028584</v>
+        <v>823.5191931240375</v>
       </c>
     </row>
     <row r="26">
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
@@ -6223,55 +6223,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6293,40 +6293,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L27" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M27" t="n">
         <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O27" t="n">
-        <v>2623.573505376138</v>
+        <v>2430.300015665487</v>
       </c>
       <c r="P27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q27" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6360,40 +6360,40 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>506.7814158330672</v>
+        <v>560.9563154684962</v>
       </c>
       <c r="C28" t="n">
-        <v>506.7814158330672</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="D28" t="n">
-        <v>356.6647764207315</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E28" t="n">
-        <v>208.7516828383384</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6402,34 +6402,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U28" t="n">
-        <v>1009.867621687013</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V28" t="n">
-        <v>977.8470507002676</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W28" t="n">
-        <v>688.4298806633069</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X28" t="n">
-        <v>688.4298806633069</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="Y28" t="n">
-        <v>688.4298806633069</v>
+        <v>560.9563154684962</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,40 +6530,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M30" t="n">
         <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O30" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="P30" t="n">
-        <v>2623.573505376138</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6597,40 +6597,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028589</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028589</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028589</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028589</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1075.210845262961</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>786.0822064765191</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V31" t="n">
-        <v>786.0822064765191</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="W31" t="n">
-        <v>496.6650364395585</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="X31" t="n">
-        <v>496.6650364395585</v>
+        <v>1113.513998854602</v>
       </c>
       <c r="Y31" t="n">
-        <v>275.8724572960284</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="32">
@@ -6688,43 +6688,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6767,22 +6767,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
         <v>1288.32563221405</v>
@@ -6791,16 +6791,16 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6864,10 +6864,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
         <v>1049.608084974667</v>
@@ -6876,34 +6876,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S34" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T34" t="n">
-        <v>1075.210845262961</v>
+        <v>1060.131394668166</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765191</v>
+        <v>1060.131394668166</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706323</v>
+        <v>805.446906462279</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336716</v>
+        <v>805.446906462279</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028584</v>
+        <v>577.4573555642617</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028584</v>
+        <v>356.6647764207315</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
         <v>904.3190116155888</v>
@@ -6931,58 +6931,58 @@
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
         <v>1288.32563221405</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97.21709146028589</v>
+        <v>581.2185435662825</v>
       </c>
       <c r="C37" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D37" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>97.21709146028589</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028589</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7113,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1380.556931533215</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.210845262961</v>
+        <v>1380.556931533215</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765191</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706323</v>
+        <v>1091.428292746773</v>
       </c>
       <c r="W37" t="n">
-        <v>241.9805482336716</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="X37" t="n">
-        <v>97.21709146028589</v>
+        <v>802.0111227098126</v>
       </c>
       <c r="Y37" t="n">
-        <v>97.21709146028589</v>
+        <v>581.2185435662825</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
         <v>4454.632848899128</v>
@@ -7198,7 +7198,7 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7241,22 +7241,22 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G39" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
         <v>1288.32563221405</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>263.2449295548438</v>
+        <v>599.9410747082369</v>
       </c>
       <c r="C40" t="n">
-        <v>263.2449295548438</v>
+        <v>431.00489178033</v>
       </c>
       <c r="D40" t="n">
-        <v>263.2449295548438</v>
+        <v>431.00489178033</v>
       </c>
       <c r="E40" t="n">
-        <v>263.2449295548438</v>
+        <v>283.0917981979369</v>
       </c>
       <c r="F40" t="n">
-        <v>116.3549820569334</v>
+        <v>283.0917981979369</v>
       </c>
       <c r="G40" t="n">
-        <v>116.3549820569334</v>
+        <v>114.9164765177575</v>
       </c>
       <c r="H40" t="n">
-        <v>116.3549820569334</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7338,10 +7338,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7350,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>955.1031435655742</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W40" t="n">
-        <v>665.6859735286137</v>
+        <v>1009.579090436494</v>
       </c>
       <c r="X40" t="n">
-        <v>665.6859735286137</v>
+        <v>781.5895395384766</v>
       </c>
       <c r="Y40" t="n">
-        <v>444.8933943850835</v>
+        <v>781.5895395384766</v>
       </c>
     </row>
     <row r="41">
@@ -7390,49 +7390,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155887</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G41" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I41" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014292</v>
@@ -7444,16 +7444,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
         <v>2814.921224614724</v>
@@ -7478,13 +7478,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
         <v>97.21709146028584</v>
@@ -7493,7 +7493,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
         <v>1288.32563221405</v>
@@ -7502,16 +7502,16 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="P42" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>97.21709146028584</v>
+        <v>668.5656656016674</v>
       </c>
       <c r="C43" t="n">
-        <v>97.21709146028584</v>
+        <v>499.6294826737605</v>
       </c>
       <c r="D43" t="n">
-        <v>97.21709146028584</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="E43" t="n">
-        <v>97.21709146028584</v>
+        <v>349.5128432614248</v>
       </c>
       <c r="F43" t="n">
-        <v>97.21709146028584</v>
+        <v>202.6228957635144</v>
       </c>
       <c r="G43" t="n">
         <v>97.21709146028584</v>
@@ -7575,10 +7575,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>1498.916270557903</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U43" t="n">
-        <v>1209.787631771461</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V43" t="n">
-        <v>955.1031435655742</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W43" t="n">
-        <v>665.6859735286137</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="X43" t="n">
-        <v>437.6964226305963</v>
+        <v>1071.006709575437</v>
       </c>
       <c r="Y43" t="n">
-        <v>216.9038434870662</v>
+        <v>850.2141304319072</v>
       </c>
     </row>
     <row r="44">
@@ -7627,40 +7627,40 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155879</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.881333182377</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514068</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795205</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
@@ -7669,28 +7669,28 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7715,13 +7715,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
         <v>97.21709146028584</v>
@@ -7730,7 +7730,7 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
         <v>1288.32563221405</v>
@@ -7739,13 +7739,13 @@
         <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>2623.573505376138</v>
+        <v>2401.214434244129</v>
       </c>
       <c r="O45" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="P45" t="n">
-        <v>2623.573505376138</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H46" t="n">
         <v>97.21709146028584</v>
@@ -7812,10 +7812,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T46" t="n">
-        <v>1075.210845262961</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U46" t="n">
-        <v>786.0822064765191</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V46" t="n">
-        <v>531.3977182706323</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W46" t="n">
-        <v>241.9805482336716</v>
+        <v>731.0291971045608</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>616.3407726382658</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>395.5481934947356</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142012</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8540,7 +8540,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>422.2865794093296</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8786,10 +8786,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>12.16546079115784</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9029,7 +9029,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>180.0985352159794</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298105</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445221</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>171.9756196175336</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>277.746630163199</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10442,7 +10442,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>356.4639808431407</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10451,7 +10451,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11150,19 +11150,19 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>297.1058531501819</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>169.6007643081022</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>197.9208099836032</v>
@@ -23475,16 +23475,16 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>58.77846971703596</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>18.18569403338509</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,7 +23892,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>19.45543076963065</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23904,10 +23904,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>222.488823685344</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24147,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,13 +24177,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>37.10236946562696</v>
       </c>
       <c r="U22" t="n">
-        <v>82.39383318338511</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,19 +24366,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>55.17179260260413</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -24417,22 +24417,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>82.39383318338523</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
@@ -24621,7 +24621,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>109.9643524037964</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>220.4372780469497</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>49.92685459437726</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2.963168004552188</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4935684633776</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>236.4866628125056</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -25083,7 +25083,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -25095,7 +25095,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>95.03569631494639</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,10 +25323,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>190.7094167529556</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338525</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>131.3914371606392</v>
       </c>
       <c r="I40" t="n">
-        <v>91.47273377359085</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,25 +25599,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25785,22 +25785,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>61.34209567542474</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>62.14182220318129</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25836,19 +25836,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>110.419245464272</v>
@@ -26073,13 +26073,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>82.39383318338523</v>
+        <v>112.1681151674051</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="6">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>742955.213501647</v>
+        <v>742955.2135016471</v>
       </c>
     </row>
     <row r="13">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>656833.4158914265</v>
+      </c>
+      <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
-      <c r="C2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="D2" t="n">
-        <v>656833.4158914265</v>
+        <v>656833.4158914261</v>
       </c>
       <c r="E2" t="n">
-        <v>625646.4955803346</v>
+        <v>625646.4955803336</v>
       </c>
       <c r="F2" t="n">
         <v>625646.4955803341</v>
       </c>
       <c r="G2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="H2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="I2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="J2" t="n">
-        <v>625646.4955803343</v>
+        <v>625646.4955803342</v>
       </c>
       <c r="K2" t="n">
         <v>625646.4955803342</v>
@@ -26346,16 +26346,16 @@
         <v>625646.4955803342</v>
       </c>
       <c r="M2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803341</v>
       </c>
       <c r="N2" t="n">
-        <v>625646.4955803342</v>
+        <v>625646.4955803339</v>
       </c>
       <c r="O2" t="n">
         <v>625646.4955803342</v>
       </c>
       <c r="P2" t="n">
-        <v>625646.4955803344</v>
+        <v>625646.4955803341</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.036476896</v>
       </c>
       <c r="F3" t="n">
-        <v>1.30296939460095e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26417,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
+        <v>787.7936905759235</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905759301</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
+        <v>787.7936905759236</v>
+      </c>
+      <c r="L4" t="n">
         <v>787.7936905758696</v>
       </c>
-      <c r="J4" t="n">
-        <v>787.7936905758314</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758012</v>
-      </c>
-      <c r="L4" t="n">
-        <v>787.7936905758694</v>
-      </c>
       <c r="M4" t="n">
-        <v>787.7936905758103</v>
+        <v>787.7936905758081</v>
       </c>
       <c r="N4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758694</v>
@@ -26469,49 +26469,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-155052.6805671465</v>
+        <v>-155052.6805671466</v>
       </c>
       <c r="C6" t="n">
-        <v>434915.198647398</v>
+        <v>434915.1986473982</v>
       </c>
       <c r="D6" t="n">
-        <v>434915.198647398</v>
+        <v>434915.1986473977</v>
       </c>
       <c r="E6" t="n">
-        <v>6736.748204424158</v>
+        <v>7613.880338172951</v>
       </c>
       <c r="F6" t="n">
-        <v>531896.78468132</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="G6" t="n">
-        <v>531896.7846813204</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="H6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150697</v>
       </c>
       <c r="I6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150693</v>
       </c>
       <c r="J6" t="n">
-        <v>355473.5654887272</v>
+        <v>356350.6976224766</v>
       </c>
       <c r="K6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="L6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150695</v>
       </c>
       <c r="M6" t="n">
-        <v>397095.7694474828</v>
+        <v>397972.9015812323</v>
       </c>
       <c r="N6" t="n">
-        <v>531896.7846813201</v>
+        <v>532773.9168150693</v>
       </c>
       <c r="O6" t="n">
-        <v>531896.7846813202</v>
+        <v>532773.9168150696</v>
       </c>
       <c r="P6" t="n">
-        <v>531896.7846813203</v>
+        <v>532773.9168150695</v>
       </c>
     </row>
   </sheetData>
@@ -26740,46 +26740,46 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
@@ -26816,13 +26816,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="N4" t="n">
         <v>1215.213643253573</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370138</v>
+        <v>452.6387412370135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>674.2872727545557</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>4.547473508864641e-13</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>674.2872727545558</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990174</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27390,16 +27390,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>159.1986362946132</v>
       </c>
       <c r="I2" t="n">
-        <v>135.9830122668284</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,7 +27435,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>123.9453835684543</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>46.37711536871484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>306.6884710724846</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27675,13 +27675,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>16.38411383734513</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>21.8741453697219</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>83.12091415361562</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>356.1956875351226</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,16 +27912,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>168.3154300822063</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28022,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>100.5952497253702</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,7 +28031,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>39.34848094147664</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28821,7 +28821,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29088,7 +29088,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -29331,7 +29331,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29480,7 +29480,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>-1.298977755714201e-12</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -29511,7 +29511,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -31147,7 +31147,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
-        <v>60.29709682323551</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31615,28 +31615,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529255</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31752,43 +31752,43 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31831,34 +31831,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>245.2687781552862</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -31867,10 +31867,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31928,10 +31928,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31940,19 +31940,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,43 +31989,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32068,25 +32068,25 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
         <v>224.6051223555648</v>
@@ -32104,10 +32104,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32165,10 +32165,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32177,19 +32177,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304423</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32341,10 +32341,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32390,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32402,10 +32402,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32414,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622981</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358983</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N21" t="n">
-        <v>224.6051223555648</v>
+        <v>224.6051223555654</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32575,13 +32575,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32627,43 +32627,43 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,25 +32779,25 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
         <v>224.6051223555648</v>
@@ -32812,13 +32812,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33289,10 +33289,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33526,10 +33526,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33575,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33587,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33599,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,25 +33727,25 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
         <v>224.6051223555648</v>
@@ -33760,13 +33760,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33812,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33824,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33836,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130947006</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,25 +33964,25 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
         <v>224.6051223555648</v>
@@ -33997,13 +33997,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34049,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34061,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34073,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>79.28971691238627</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34286,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34298,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34310,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961188</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555648</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34474,10 +34474,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34523,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34535,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34547,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.3897561047524</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34795,7 +34795,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35026,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35260,16 +35260,16 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>486.0228424856235</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35412,28 +35412,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>496.5348529875712</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>219.2588757226825</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35649,28 +35649,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,13 +35728,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>572.6057846157851</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109055</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N18" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>40.11676112995793</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,16 +36202,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005177</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594833</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N21" t="n">
-        <v>572.6057846157851</v>
+        <v>572.6057846157856</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556549</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.2256999718747</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36439,13 +36439,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
         <v>572.6057846157851</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>29.37937517308915</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36913,28 +36913,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>143.7722227488687</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,19 +37150,19 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>213.8677363986963</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37171,7 +37171,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37387,13 +37387,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
         <v>572.6057846157851</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,13 +37624,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
         <v>572.6057846157851</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349674</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37861,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>572.6057846157851</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>263.7780781379932</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415063</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157851</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>154.5096087057375</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
